--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-215_業務俯瞰図(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-215_業務俯瞰図(サンプル＆ガイド).xlsx
@@ -592,16 +592,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -663,6 +653,9 @@
       <t>リカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -7203,9 +7196,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
       <c r="J31" s="18"/>
-      <c r="R31" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="14"/>
@@ -7245,20 +7236,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S39" s="23"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7733,7 +7728,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7765,12 +7760,12 @@
     <row r="3" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7786,7 +7781,7 @@
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7806,7 +7801,7 @@
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8230,15 +8225,6 @@
     <row r="41" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
     <mergeCell ref="C16:H16"/>
@@ -8254,6 +8240,15 @@
     <mergeCell ref="I19:Y19"/>
     <mergeCell ref="Z19:AH19"/>
     <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-215_業務俯瞰図(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-215_業務俯瞰図(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDAC52A-3346-4B9C-A664-107B65BA89D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="195" windowWidth="10575" windowHeight="5640"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -17,12 +18,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -592,17 +603,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>要件定義の対象範囲を概要レベル(※)でお客さまと認識を合わせるため、お客さま業務の全体像を可視化する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,14 +654,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1155,6 +1152,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1176,7 +1176,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1274,52 +1280,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1340,7 +1300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1427,7 +1393,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1487,7 +1459,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1551,7 +1529,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -1601,7 +1585,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1661,7 +1651,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -1711,7 +1707,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -1761,7 +1763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1853,7 +1861,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1917,7 +1931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2009,7 +2029,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2086,7 +2112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2183,7 +2215,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -2233,7 +2271,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="22" idx="1"/>
@@ -2288,7 +2332,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="284" name="グループ化 283"/>
+        <xdr:cNvPr id="284" name="グループ化 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2301,7 +2351,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="286" name="正方形/長方形 285"/>
+          <xdr:cNvPr id="286" name="正方形/長方形 285">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2338,7 +2394,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="287" name="正方形/長方形 286"/>
+          <xdr:cNvPr id="287" name="正方形/長方形 286">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2397,7 +2459,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="283" name="グループ化 282"/>
+        <xdr:cNvPr id="283" name="グループ化 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2410,7 +2478,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvPr id="91" name="正方形/長方形 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2447,7 +2521,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="Rectangle 1234"/>
+          <xdr:cNvPr id="98" name="Rectangle 1234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2461,7 +2541,6 @@
             <a:avLst/>
           </a:prstGeom>
           <a:ln/>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -2509,7 +2588,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="240" name="グループ化 239"/>
+        <xdr:cNvPr id="240" name="グループ化 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2522,7 +2607,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+          <xdr:cNvPr id="92" name="正方形/長方形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2559,7 +2650,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+          <xdr:cNvPr id="93" name="正方形/長方形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2618,7 +2715,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="正方形/長方形 93"/>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2681,7 +2784,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2744,7 +2853,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="242" name="グループ化 241"/>
+        <xdr:cNvPr id="242" name="グループ化 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2757,7 +2872,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+          <xdr:cNvPr id="96" name="正方形/長方形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2794,7 +2915,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+          <xdr:cNvPr id="97" name="正方形/長方形 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2853,7 +2980,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="258" name="グループ化 257"/>
+        <xdr:cNvPr id="258" name="グループ化 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2866,7 +2999,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+          <xdr:cNvPr id="101" name="正方形/長方形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2903,7 +3042,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+          <xdr:cNvPr id="102" name="正方形/長方形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2962,7 +3107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3025,7 +3176,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3088,7 +3245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3151,7 +3314,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3214,7 +3383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3277,7 +3452,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="2"/>
           <a:endCxn id="104" idx="0"/>
@@ -3332,7 +3513,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="243" name="グループ化 242"/>
+        <xdr:cNvPr id="243" name="グループ化 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3345,7 +3532,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+          <xdr:cNvPr id="109" name="正方形/長方形 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3382,7 +3575,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+          <xdr:cNvPr id="110" name="正方形/長方形 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3441,7 +3640,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3504,7 +3709,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3567,7 +3778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3630,7 +3847,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="カギ線コネクタ 115"/>
+        <xdr:cNvPr id="116" name="カギ線コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="287" idx="1"/>
           <a:endCxn id="112" idx="0"/>
@@ -3685,7 +3908,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="カギ線コネクタ 116"/>
+        <xdr:cNvPr id="117" name="カギ線コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
           <a:endCxn id="113" idx="1"/>
@@ -3742,7 +3971,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="カギ線コネクタ 119"/>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="113" idx="2"/>
           <a:endCxn id="154" idx="3"/>
@@ -3797,7 +4032,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="カギ線コネクタ 120"/>
+        <xdr:cNvPr id="121" name="カギ線コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="1"/>
           <a:endCxn id="155" idx="0"/>
@@ -3852,7 +4093,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="カギ線コネクタ 124"/>
+        <xdr:cNvPr id="125" name="カギ線コネクタ 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="1"/>
           <a:endCxn id="154" idx="2"/>
@@ -3907,7 +4154,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="カギ線コネクタ 126"/>
+        <xdr:cNvPr id="127" name="カギ線コネクタ 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="154" idx="1"/>
           <a:endCxn id="104" idx="1"/>
@@ -3964,7 +4217,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="カギ線コネクタ 128"/>
+        <xdr:cNvPr id="129" name="カギ線コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="107" idx="1"/>
@@ -4019,7 +4278,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="111" idx="2"/>
           <a:endCxn id="107" idx="3"/>
@@ -4074,7 +4339,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="106" idx="3"/>
           <a:endCxn id="286" idx="3"/>
@@ -4131,7 +4402,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
+        <xdr:cNvPr id="134" name="カギ線コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="104" idx="3"/>
           <a:endCxn id="107" idx="2"/>
@@ -4186,7 +4463,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+        <xdr:cNvPr id="135" name="カギ線コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="106" idx="1"/>
           <a:endCxn id="107" idx="2"/>
@@ -4241,7 +4524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4300,7 +4589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4364,7 +4659,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="カギ線コネクタ 151"/>
+        <xdr:cNvPr id="152" name="カギ線コネクタ 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="286" idx="2"/>
           <a:endCxn id="105" idx="3"/>
@@ -4419,7 +4720,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="274" name="グループ化 273"/>
+        <xdr:cNvPr id="274" name="グループ化 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4432,7 +4739,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="154" name="正方形/長方形 153"/>
+          <xdr:cNvPr id="154" name="正方形/長方形 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4469,7 +4782,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+          <xdr:cNvPr id="155" name="正方形/長方形 154">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4528,7 +4847,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4541,7 +4866,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="180" name="図 179"/>
+          <xdr:cNvPr id="180" name="図 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4570,7 +4901,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="181" name="テキスト ボックス 180"/>
+          <xdr:cNvPr id="181" name="テキスト ボックス 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4631,7 +4968,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="191" name="グループ化 190"/>
+        <xdr:cNvPr id="191" name="グループ化 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4644,7 +4987,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="192" name="図 191"/>
+          <xdr:cNvPr id="192" name="図 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4673,7 +5022,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
+          <xdr:cNvPr id="193" name="テキスト ボックス 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4735,7 +5090,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="194" name="グループ化 193"/>
+        <xdr:cNvPr id="194" name="グループ化 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4748,7 +5109,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="195" name="図 194"/>
+          <xdr:cNvPr id="195" name="図 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4777,7 +5144,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="テキスト ボックス 195"/>
+          <xdr:cNvPr id="196" name="テキスト ボックス 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4839,7 +5212,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="197" name="グループ化 196"/>
+        <xdr:cNvPr id="197" name="グループ化 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4852,7 +5231,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="198" name="図 197"/>
+          <xdr:cNvPr id="198" name="図 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4881,7 +5266,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
+          <xdr:cNvPr id="199" name="テキスト ボックス 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4943,7 +5334,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="200" name="グループ化 199"/>
+        <xdr:cNvPr id="200" name="グループ化 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4956,7 +5353,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="201" name="図 200"/>
+          <xdr:cNvPr id="201" name="図 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4985,7 +5388,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="テキスト ボックス 201"/>
+          <xdr:cNvPr id="202" name="テキスト ボックス 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5047,7 +5456,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="185" name="カギ線コネクタ 184"/>
+        <xdr:cNvPr id="185" name="カギ線コネクタ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="2"/>
           <a:endCxn id="95" idx="0"/>
@@ -5104,7 +5519,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="186" name="グループ化 185"/>
+        <xdr:cNvPr id="186" name="グループ化 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5117,7 +5538,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="187" name="図 186"/>
+          <xdr:cNvPr id="187" name="図 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5146,7 +5573,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="テキスト ボックス 205"/>
+          <xdr:cNvPr id="206" name="テキスト ボックス 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5208,7 +5641,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="207" name="グループ化 206"/>
+        <xdr:cNvPr id="207" name="グループ化 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5221,7 +5660,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="208" name="図 207"/>
+          <xdr:cNvPr id="208" name="図 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5250,7 +5695,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="テキスト ボックス 208"/>
+          <xdr:cNvPr id="209" name="テキスト ボックス 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5312,7 +5763,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="210" name="直線矢印コネクタ 209"/>
+        <xdr:cNvPr id="210" name="直線矢印コネクタ 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="105" idx="2"/>
           <a:endCxn id="106" idx="0"/>
@@ -5367,7 +5824,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="211" name="グループ化 210"/>
+        <xdr:cNvPr id="211" name="グループ化 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5380,7 +5843,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="212" name="図 211"/>
+          <xdr:cNvPr id="212" name="図 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5409,7 +5878,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="テキスト ボックス 212"/>
+          <xdr:cNvPr id="213" name="テキスト ボックス 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5471,7 +5946,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="直線矢印コネクタ 216"/>
+        <xdr:cNvPr id="217" name="直線矢印コネクタ 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="112" idx="2"/>
           <a:endCxn id="113" idx="0"/>
@@ -5526,7 +6007,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="214" name="グループ化 213"/>
+        <xdr:cNvPr id="214" name="グループ化 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5539,7 +6026,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="215" name="図 214"/>
+          <xdr:cNvPr id="215" name="図 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5568,7 +6061,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="テキスト ボックス 215"/>
+          <xdr:cNvPr id="216" name="テキスト ボックス 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5630,7 +6129,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="254" name="直線矢印コネクタ 253"/>
+        <xdr:cNvPr id="254" name="直線矢印コネクタ 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="111" idx="1"/>
           <a:endCxn id="112" idx="3"/>
@@ -5685,7 +6190,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="182" name="グループ化 181"/>
+        <xdr:cNvPr id="182" name="グループ化 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5698,7 +6209,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="183" name="図 182"/>
+          <xdr:cNvPr id="183" name="図 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5727,7 +6244,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="184" name="テキスト ボックス 183"/>
+          <xdr:cNvPr id="184" name="テキスト ボックス 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5789,7 +6312,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="264" name="直線矢印コネクタ 263"/>
+        <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="3"/>
           <a:endCxn id="95" idx="1"/>
@@ -5844,7 +6373,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="289" name="直線矢印コネクタ 288"/>
+        <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="111" idx="3"/>
           <a:endCxn id="286" idx="1"/>
@@ -5899,7 +6434,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5912,7 +6453,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="190" name="テキスト ボックス 189"/>
+          <xdr:cNvPr id="190" name="テキスト ボックス 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5957,7 +6504,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6002,7 +6555,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6015,7 +6574,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="テキスト ボックス 158"/>
+          <xdr:cNvPr id="159" name="テキスト ボックス 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6060,7 +6625,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="図 9"/>
+          <xdr:cNvPr id="10" name="図 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6105,7 +6676,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6118,7 +6695,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="137" name="テキスト ボックス 136"/>
+          <xdr:cNvPr id="137" name="テキスト ボックス 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6163,7 +6746,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10"/>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6208,7 +6797,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="128" name="グループ化 127"/>
+        <xdr:cNvPr id="128" name="グループ化 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6221,7 +6816,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
+          <xdr:cNvPr id="130" name="テキスト ボックス 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6266,7 +6867,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="132" name="図 131"/>
+          <xdr:cNvPr id="132" name="図 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6311,7 +6918,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="136" name="グループ化 135"/>
+        <xdr:cNvPr id="136" name="グループ化 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6324,7 +6937,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="テキスト ボックス 137"/>
+          <xdr:cNvPr id="138" name="テキスト ボックス 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6369,7 +6988,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="139" name="図 138"/>
+          <xdr:cNvPr id="139" name="図 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6414,7 +7039,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="140" name="グループ化 139"/>
+        <xdr:cNvPr id="140" name="グループ化 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6427,7 +7058,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="141" name="テキスト ボックス 140"/>
+          <xdr:cNvPr id="141" name="テキスト ボックス 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6472,7 +7109,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="142" name="図 141"/>
+          <xdr:cNvPr id="142" name="図 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6517,7 +7160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="テキスト ボックス 143"/>
+        <xdr:cNvPr id="144" name="テキスト ボックス 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6577,7 +7226,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="図 152"/>
+        <xdr:cNvPr id="153" name="図 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6621,7 +7276,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="157" name="グループ化 156"/>
+        <xdr:cNvPr id="157" name="グループ化 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6634,7 +7295,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="158" name="テキスト ボックス 157"/>
+          <xdr:cNvPr id="158" name="テキスト ボックス 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6679,7 +7346,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="171" name="図 170"/>
+          <xdr:cNvPr id="171" name="図 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6724,7 +7397,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="172" name="グループ化 171"/>
+        <xdr:cNvPr id="172" name="グループ化 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6737,7 +7416,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
+          <xdr:cNvPr id="173" name="テキスト ボックス 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6782,7 +7467,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="174" name="図 173"/>
+          <xdr:cNvPr id="174" name="図 173">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -6816,7 +7507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6858,7 +7549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6891,9 +7582,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6926,6 +7634,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7101,7 +7826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7210,58 +7935,47 @@
       <c r="R32" s="22"/>
       <c r="S32" s="23"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="24"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="23"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="24"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="23"/>
       <c r="S38" s="24"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>35</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="26"/>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="24"/>
-      <c r="R39" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="R39" s="24"/>
       <c r="S39" s="23"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7724,17 +8438,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7760,12 +8471,12 @@
     <row r="3" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7781,7 +8492,7 @@
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7801,7 +8512,7 @@
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8225,6 +8936,15 @@
     <row r="41" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
     <mergeCell ref="C16:H16"/>
@@ -8240,15 +8960,6 @@
     <mergeCell ref="I19:Y19"/>
     <mergeCell ref="Z19:AH19"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8265,7 +8976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
